--- a/ExperimentFolder_v23.9.19/DataStorage/md/LogFiles/md_EmotionSession_2019_Sep_05_1241_done.xlsx
+++ b/ExperimentFolder_v23.9.19/DataStorage/md/LogFiles/md_EmotionSession_2019_Sep_05_1241_done.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="36" windowWidth="22116" windowHeight="9552"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="22110" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="md_EmotionSession_2019_Sep_05_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1254,12 +1254,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1604,81 +1605,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT106" workbookViewId="0">
-      <selection activeCell="AY129" sqref="AY129"/>
+    <sheetView tabSelected="1" topLeftCell="AU101" workbookViewId="0">
+      <selection activeCell="BA129" sqref="BA129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="23" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="23" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="23" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="30" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="38.5703125" customWidth="1"/>
+    <col min="54" max="54" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="17" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.3">
@@ -11374,7 +11375,7 @@
       <c r="AZ129">
         <v>5</v>
       </c>
-      <c r="BA129" s="4">
+      <c r="BA129" s="5">
         <v>21671</v>
       </c>
       <c r="BM129" t="s">
